--- a/src/assets/WorkOrder template 2.xlsx
+++ b/src/assets/WorkOrder template 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Buyer</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Color</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t>FabType</t>
   </si>
   <si>
@@ -139,13 +136,22 @@
   </si>
   <si>
     <t>Entry20</t>
+  </si>
+  <si>
+    <t>GSize</t>
+  </si>
+  <si>
+    <t>Entry21</t>
+  </si>
+  <si>
+    <t>FSize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +164,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -201,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,6 +229,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,114 +569,120 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/WorkOrder template 2.xlsx
+++ b/src/assets/WorkOrder template 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Buyer</t>
   </si>
@@ -78,70 +78,7 @@
     <t>DyeRate</t>
   </si>
   <si>
-    <t>Entry1</t>
-  </si>
-  <si>
-    <t>Entry2</t>
-  </si>
-  <si>
-    <t>Entry3</t>
-  </si>
-  <si>
-    <t>Entry4</t>
-  </si>
-  <si>
-    <t>Entry5</t>
-  </si>
-  <si>
-    <t>Entry6</t>
-  </si>
-  <si>
-    <t>Entry7</t>
-  </si>
-  <si>
-    <t>Entry8</t>
-  </si>
-  <si>
-    <t>Entry9</t>
-  </si>
-  <si>
-    <t>Entry10</t>
-  </si>
-  <si>
-    <t>Entry11</t>
-  </si>
-  <si>
-    <t>Entry12</t>
-  </si>
-  <si>
-    <t>Entry13</t>
-  </si>
-  <si>
-    <t>Entry14</t>
-  </si>
-  <si>
-    <t>Entry15</t>
-  </si>
-  <si>
-    <t>Entry16</t>
-  </si>
-  <si>
-    <t>Entry17</t>
-  </si>
-  <si>
-    <t>Entry18</t>
-  </si>
-  <si>
-    <t>Entry19</t>
-  </si>
-  <si>
-    <t>Entry20</t>
-  </si>
-  <si>
     <t>GSize</t>
-  </si>
-  <si>
-    <t>Entry21</t>
   </si>
   <si>
     <t>FSize</t>
@@ -213,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,14 +161,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,11 +493,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="10" width="19.85546875" style="8"/>
+    <col min="12" max="14" width="19.85546875" style="8"/>
+    <col min="19" max="21" width="19.85546875" style="8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -569,33 +518,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -610,80 +559,38 @@
       <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
